--- a/02-DiscreteMath/TA2/mailsender/mailsender/Sids.xlsx
+++ b/02-DiscreteMath/TA2/mailsender/mailsender/Sids.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MMD\UNI\Uni_forms\mailsender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MMD\UNI\Others\mailsender\mailsender\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:A89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -418,203 +418,133 @@
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>810100076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>810100580</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>810100079</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>810198497</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>810100568</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>810100240</v>
-      </c>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>810199562</v>
-      </c>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>810198360</v>
-      </c>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>610100012</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>810100245</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>810100576</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>810198501</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>811900018</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>810100116</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>810100125</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>810199578</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>810100139</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>810199423</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>810100152</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>810098053</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>810100072</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>810100161</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>810100163</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>810100578</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>810100167</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>810100170</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>810199448</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>810001001</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>810101075</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>810199467</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>810199470</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>810100202</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>810000004</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>810199485</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>810100258</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>810198546</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>810199582</v>
-      </c>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>810099003</v>
-      </c>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>810197596</v>
-      </c>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>810199596</v>
-      </c>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
